--- a/publication/web-root/cibmtr-reporting/observations-summary.xlsx
+++ b/publication/web-root/cibmtr-reporting/observations-summary.xlsx
@@ -307,10 +307,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/publication/web-root/cibmtr-reporting/observations-summary.xlsx
+++ b/publication/web-root/cibmtr-reporting/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="69">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>CIBMTR Cytogenetics Profile</t>
   </si>
   <si>
-    <t>null#laboratory</t>
+    <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t/>
@@ -185,7 +185,40 @@
     <t>CIBMTR Observation Laboratory Results Profile (us-core)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes (extensible)</t>
+  </si>
+  <si>
+    <t>cibmtr-vital-signs</t>
+  </si>
+  <si>
+    <t>CIBMTR Vital Signs Results Profile (us-core)</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>cibmtr-vital-signs-height</t>
+  </si>
+  <si>
+    <t>CIBMTR Vital Signs-Height Profile (us-core)</t>
+  </si>
+  <si>
+    <t>LOINC#8302-2</t>
+  </si>
+  <si>
+    <t>cibmtr-vital-signs-weight</t>
+  </si>
+  <si>
+    <t>CIBMTR Vital Signs-Weight Profile (us-core)</t>
+  </si>
+  <si>
+    <t>LOINC#29463-7</t>
   </si>
 </sst>
 </file>
@@ -307,10 +340,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -319,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1445,6 +1478,111 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/publication/web-root/cibmtr-reporting/observations-summary.xlsx
+++ b/publication/web-root/cibmtr-reporting/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="58">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>CIBMTR Cytogenetics Profile</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory</t>
+    <t>null#laboratory</t>
   </si>
   <si>
     <t/>
@@ -185,40 +185,7 @@
     <t>CIBMTR Observation Laboratory Results Profile (us-core)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-laboratory-test-codes (extensible)</t>
-  </si>
-  <si>
-    <t>cibmtr-vital-signs</t>
-  </si>
-  <si>
-    <t>CIBMTR Vital Signs Results Profile (us-core)</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/vital-signs (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>cibmtr-vital-signs-height</t>
-  </si>
-  <si>
-    <t>CIBMTR Vital Signs-Height Profile (us-core)</t>
-  </si>
-  <si>
-    <t>LOINC#8302-2</t>
-  </si>
-  <si>
-    <t>cibmtr-vital-signs-weight</t>
-  </si>
-  <si>
-    <t>CIBMTR Vital Signs-Weight Profile (us-core)</t>
-  </si>
-  <si>
-    <t>LOINC#29463-7</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
   </si>
 </sst>
 </file>
@@ -340,10 +307,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -352,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1478,111 +1445,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
